--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -1,35 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed sabry\Downloads\IP project\Image-Processing\BubbleSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material\3rd CMP\First term\Image processing\Project\Image-processing\BubbleSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7221C368-D1FD-4528-A30A-6B122451FBE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018290E1-0E54-4124-A675-968B91305CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bubble sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Code</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -42,85 +40,76 @@
     <t>Q4</t>
   </si>
   <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
-  </si>
-  <si>
-    <t>Q19</t>
-  </si>
-  <si>
-    <t>Q20</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q22</t>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <t>Q24</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
-    <t>Q26</t>
-  </si>
-  <si>
-    <t>Q27</t>
-  </si>
-  <si>
-    <t>Q28</t>
-  </si>
-  <si>
-    <t>Q29</t>
-  </si>
-  <si>
-    <t>Q30</t>
-  </si>
-  <si>
-    <t>Student Name</t>
   </si>
 </sst>
 </file>
@@ -221,7 +210,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -256,7 +245,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -438,51 +427,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -535,21 +520,352 @@
       <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>30</v>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -1,133 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material\3rd CMP\First term\Image processing\Project\Image-processing\BubbleSheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018290E1-0E54-4124-A675-968B91305CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bubble sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="bubble sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
-  </si>
-  <si>
-    <t>Q19</t>
-  </si>
-  <si>
-    <t>Q20</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q22</t>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <t>Q24</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
-    <t>Q26</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -146,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -426,107 +385,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>26</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Q6</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Q7</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Q8</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Q11</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Q12</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Q13</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Q14</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Q15</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Q16</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Q17</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Q18</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Q19</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Q20</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Q21</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Q22</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Q23</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>Q24</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Q25</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Q26</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -607,12 +630,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -693,12 +720,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -779,90 +810,490 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material\3rd CMP\First term\Image processing\Project\Image-processing\BubbleSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4558F616-57E2-4B5E-A636-66AF33EA5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA695B9-C2FC-4BF5-B13E-1CDC83821A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,99 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
-  </si>
-  <si>
-    <t>Q19</t>
-  </si>
-  <si>
-    <t>Q20</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q22</t>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <t>Q24</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
-    <t>Q26</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="4">
   <si>
     <t>12345</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Ahmedsabry</t>
   </si>
   <si>
-    <t>Ahmedsabry</t>
+    <t>Break</t>
+  </si>
+  <si>
+    <t>AhmedSabry~</t>
   </si>
 </sst>
 </file>
@@ -430,367 +349,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A2:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M2" t="b">
-        <v>1</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>1</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>1</v>
-      </c>
-      <c r="T2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" t="b">
-        <v>1</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -869,14 +735,26 @@
       </c>
       <c r="AB5">
         <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -954,99 +832,111 @@
         <v>1</v>
       </c>
       <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1057,94 +947,91 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -1155,10 +1042,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1253,10 +1137,7 @@
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1351,10 +1232,10 @@
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1444,6 +1325,1253 @@
         <v>0</v>
       </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>1</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>1</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>1</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1</v>
+      </c>
+      <c r="AC24">
+        <v>1</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AU89"/>
+  <dimension ref="A2:AU132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7461,8 +7461,6 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>1</v>
       </c>
@@ -7596,6 +7594,3000 @@
         <v>0</v>
       </c>
       <c r="AU89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>1</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>1</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Anhmedsabr</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>1</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>1</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Ahmedsabry</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1</v>
+      </c>
+      <c r="S113" t="n">
+        <v>1</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>1</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>1</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>AhmedSabry~</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1</v>
+      </c>
+      <c r="U124" t="n">
+        <v>1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>1</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>1</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AU132"/>
+  <dimension ref="A2:AU207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10531,8 +10531,6 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr"/>
-      <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
         <v>0</v>
       </c>
@@ -10588,6 +10586,4915 @@
         <v>0</v>
       </c>
       <c r="U132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>15@®©O008*»©—</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>0</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1</v>
+      </c>
+      <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>1</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>1</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1</v>
+      </c>
+      <c r="X156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Anhmedsabr</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>1</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>1</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>1</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1</v>
+      </c>
+      <c r="X158" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1</v>
+      </c>
+      <c r="X159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Ahmedsabry</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>1</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1</v>
+      </c>
+      <c r="U160" t="n">
+        <v>1</v>
+      </c>
+      <c r="V160" t="n">
+        <v>1</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1</v>
+      </c>
+      <c r="U162" t="n">
+        <v>0</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>1</v>
+      </c>
+      <c r="R163" t="n">
+        <v>0</v>
+      </c>
+      <c r="S163" t="n">
+        <v>1</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>0</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>0</v>
+      </c>
+      <c r="S164" t="n">
+        <v>0</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>0</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="n">
+        <v>1</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1</v>
+      </c>
+      <c r="S168" t="n">
+        <v>1</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1</v>
+      </c>
+      <c r="V168" t="n">
+        <v>1</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1</v>
+      </c>
+      <c r="X168" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>212019111</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Anhmedsabr</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1</v>
+      </c>
+      <c r="P170" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>1</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>1</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1</v>
+      </c>
+      <c r="U170" t="n">
+        <v>1</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1</v>
+      </c>
+      <c r="S171" t="n">
+        <v>1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1</v>
+      </c>
+      <c r="U171" t="n">
+        <v>1</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1</v>
+      </c>
+      <c r="X171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Ahmedsabry</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1</v>
+      </c>
+      <c r="P172" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>1</v>
+      </c>
+      <c r="R172" t="n">
+        <v>1</v>
+      </c>
+      <c r="S172" t="n">
+        <v>1</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1</v>
+      </c>
+      <c r="U172" t="n">
+        <v>1</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1</v>
+      </c>
+      <c r="X172" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>1</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>0</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>1</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>1</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0</v>
+      </c>
+      <c r="V175" t="n">
+        <v>1</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0</v>
+      </c>
+      <c r="S177" t="n">
+        <v>1</v>
+      </c>
+      <c r="T177" t="n">
+        <v>0</v>
+      </c>
+      <c r="U177" t="n">
+        <v>0</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>0</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>0</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>AhmedSabry~</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>1</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1</v>
+      </c>
+      <c r="X183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>0</v>
+      </c>
+      <c r="T184" t="n">
+        <v>0</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1</v>
+      </c>
+      <c r="P185" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>1</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>0</v>
+      </c>
+      <c r="V185" t="n">
+        <v>1</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1</v>
+      </c>
+      <c r="T186" t="n">
+        <v>0</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0</v>
+      </c>
+      <c r="V186" t="n">
+        <v>1</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>0</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>0</v>
+      </c>
+      <c r="V188" t="n">
+        <v>0</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>0</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>0</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>0</v>
+      </c>
+      <c r="V190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" t="n">
+        <v>0</v>
+      </c>
+      <c r="T191" t="n">
+        <v>0</v>
+      </c>
+      <c r="U191" t="n">
+        <v>0</v>
+      </c>
+      <c r="V191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
+      <c r="R192" t="n">
+        <v>0</v>
+      </c>
+      <c r="S192" t="n">
+        <v>0</v>
+      </c>
+      <c r="T192" t="n">
+        <v>0</v>
+      </c>
+      <c r="U192" t="n">
+        <v>0</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="n">
+        <v>0</v>
+      </c>
+      <c r="S193" t="n">
+        <v>0</v>
+      </c>
+      <c r="T193" t="n">
+        <v>0</v>
+      </c>
+      <c r="U193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1</v>
+      </c>
+      <c r="P194" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>0</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1</v>
+      </c>
+      <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1</v>
+      </c>
+      <c r="S197" t="n">
+        <v>0</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="n">
+        <v>0</v>
+      </c>
+      <c r="S202" t="n">
+        <v>0</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" t="n">
+        <v>0</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1</v>
+      </c>
+      <c r="P204" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="n">
+        <v>0</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>0</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF21"/>
+  <dimension ref="A2:AF46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1982,7 +1982,6 @@
           <t>01103</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
         <v>1</v>
       </c>
@@ -2071,6 +2070,2174 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MaryemMahmoucl</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>91011</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>01103</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>303000</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MaryemMahmoucl</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>91011</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>01103</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MatkoudAN</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19320</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>01910</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MaryemMahmoucl</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>91011</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01103</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF46"/>
+  <dimension ref="A2:AF66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4194,7 +4194,6 @@
           <t>110</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
         <v>1</v>
       </c>
@@ -4238,6 +4237,1485 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>11110</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MatkoudAN</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>19320</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1092113</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1092113</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>19320</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>09099</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>09099</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF66"/>
+  <dimension ref="A2:AF77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5675,7 +5675,6 @@
           <t>100</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
         <v>0</v>
       </c>
@@ -5716,6 +5715,594 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF77"/>
+  <dimension ref="A2:AF89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6259,7 +6259,6 @@
           <t>09211</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>0</v>
       </c>
@@ -6303,6 +6302,646 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2303</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>10301</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09211</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF89"/>
+  <dimension ref="A2:AF138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6898,7 +6898,6 @@
           <t>09211</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>0</v>
       </c>
@@ -6942,6 +6941,4287 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>43215</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>43215</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2305</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MohamedAhied</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>43215</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7846</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>56785</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>MatkoudAN</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>56785</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>MatkoudAN</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>56785</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MatkoudAN</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>81510</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>1</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2050</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>MaryemMahmoucl</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Anhmedsabr</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0</v>
+      </c>
+      <c r="S128" t="n">
+        <v>1</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>1</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129" t="n">
+        <v>1</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>9202119</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ahmedsabry</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>31038</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>41606</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
+      <c r="R133" t="n">
+        <v>0</v>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>0</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>0</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+      <c r="P136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
+        <v>0</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF138" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF138"/>
+  <dimension ref="A2:AF143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11133,7 +11133,6 @@
           <t>0082018</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>0</v>
       </c>
@@ -11222,6 +11221,497 @@
         <v>0</v>
       </c>
       <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>AbnedAK</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>0</v>
+      </c>
+      <c r="S140" t="n">
+        <v>0</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>79370</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>0</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0082018</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>0</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF143"/>
+  <dimension ref="A2:AF144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11623,7 +11623,6 @@
           <t>0082018</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>0</v>
       </c>
@@ -11712,6 +11711,85 @@
         <v>0</v>
       </c>
       <c r="AF143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>1</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA144" t="n">
         <v>0</v>
       </c>
     </row>

--- a/BubbleSheet/answers.xlsx
+++ b/BubbleSheet/answers.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AF144"/>
+  <dimension ref="A2:AF145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11715,8 +11715,6 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr"/>
-      <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>0</v>
       </c>
@@ -11790,6 +11788,85 @@
         <v>1</v>
       </c>
       <c r="AA144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>0</v>
+      </c>
+      <c r="S145" t="n">
+        <v>0</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA145" t="n">
         <v>0</v>
       </c>
     </row>
